--- a/content/drafts/entitats/Municipis_Catalunya_Geo.xlsx
+++ b/content/drafts/entitats/Municipis_Catalunya_Geo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/___Municipis_Catalunya_Geo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{C5119770-C77D-48AB-AA4C-F0C626024E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91A5793C-4096-4E36-8A8E-6BF9E5FC5006}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{C5119770-C77D-48AB-AA4C-F0C626024E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAACCA3A-D0DE-45E4-9C62-6D6694A0FBD0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4756" uniqueCount="2943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4756" uniqueCount="2945">
   <si>
     <t>Abella de la Conca</t>
   </si>
@@ -8862,6 +8862,12 @@
   </si>
   <si>
     <t>Georeferencia</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Lluçanès</t>
   </si>
 </sst>
 </file>
@@ -11177,10 +11183,10 @@
         <v>47</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1972</v>
+        <v>2943</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>1941</v>
+        <v>2944</v>
       </c>
       <c r="E47" s="3">
         <v>425697.57669999998</v>
@@ -21501,10 +21507,10 @@
         <v>398</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1972</v>
+        <v>2943</v>
       </c>
       <c r="D403" s="16" t="s">
-        <v>1941</v>
+        <v>2944</v>
       </c>
       <c r="E403" s="3">
         <v>423331.45010000002</v>
@@ -24314,10 +24320,10 @@
         <v>495</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1972</v>
+        <v>2943</v>
       </c>
       <c r="D500" s="16" t="s">
-        <v>1941</v>
+        <v>2944</v>
       </c>
       <c r="E500" s="3">
         <v>425093.38319999998</v>
@@ -24575,10 +24581,10 @@
         <v>504</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1972</v>
+        <v>2943</v>
       </c>
       <c r="D509" s="16" t="s">
-        <v>1941</v>
+        <v>2944</v>
       </c>
       <c r="E509" s="3">
         <v>422098.33350000001</v>
@@ -25474,10 +25480,10 @@
         <v>535</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>1972</v>
+        <v>2943</v>
       </c>
       <c r="D540" s="16" t="s">
-        <v>1941</v>
+        <v>2944</v>
       </c>
       <c r="E540" s="3">
         <v>426092.43229999999</v>
@@ -26808,10 +26814,10 @@
         <v>581</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1972</v>
+        <v>2943</v>
       </c>
       <c r="D586" s="16" t="s">
-        <v>1941</v>
+        <v>2944</v>
       </c>
       <c r="E586" s="3">
         <v>419560.6937</v>
@@ -29563,10 +29569,10 @@
         <v>675</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>1898</v>
+        <v>2943</v>
       </c>
       <c r="D681" s="16" t="s">
-        <v>1925</v>
+        <v>2944</v>
       </c>
       <c r="E681" s="3">
         <v>418974.33970000001</v>
@@ -30404,10 +30410,10 @@
         <v>704</v>
       </c>
       <c r="C710" s="1" t="s">
-        <v>1972</v>
+        <v>2943</v>
       </c>
       <c r="D710" s="16" t="s">
-        <v>1941</v>
+        <v>2944</v>
       </c>
       <c r="E710" s="3">
         <v>423356.41619999998</v>
@@ -32753,10 +32759,10 @@
         <v>786</v>
       </c>
       <c r="C791" s="1" t="s">
-        <v>1972</v>
+        <v>2943</v>
       </c>
       <c r="D791" s="16" t="s">
-        <v>1941</v>
+        <v>2944</v>
       </c>
       <c r="E791" s="3">
         <v>431038.43430000002</v>
@@ -37452,6 +37458,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010005A3960399C2234EB92CC9686FF6F87F" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6b9fb4baab9ad9fbdda99e3f5c22fc21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3aff557-982a-455c-8bbc-92c71da94542" xmlns:ns3="857edd72-1fa1-43ec-b599-5660574b73e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="431e8fb1ae557487b3a709321472510d" ns2:_="" ns3:_="">
     <xsd:import namespace="f3aff557-982a-455c-8bbc-92c71da94542"/>
@@ -37616,12 +37628,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -37632,6 +37638,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E7EB5C2-3DAE-4192-BD5F-B95CD458096E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0AB627A-89AE-4954-AE30-B695868C616F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37650,22 +37672,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E7EB5C2-3DAE-4192-BD5F-B95CD458096E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EEDD266-D806-4CE6-BF42-D7CA26B972B7}">
   <ds:schemaRefs>

--- a/content/drafts/entitats/Municipis_Catalunya_Geo.xlsx
+++ b/content/drafts/entitats/Municipis_Catalunya_Geo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/___Municipis_Catalunya_Geo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\20 Cataleg\60 Modelatge\___Municipis_Catalunya_Geo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{C5119770-C77D-48AB-AA4C-F0C626024E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAACCA3A-D0DE-45E4-9C62-6D6694A0FBD0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51DEF4F-9740-4FD0-803D-7D5FF8A1A0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13358,10 +13358,10 @@
         <v>120</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="E122" s="3">
         <v>363681.17320000002</v>
@@ -29569,10 +29569,10 @@
         <v>675</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>2943</v>
+        <v>1898</v>
       </c>
       <c r="D681" s="16" t="s">
-        <v>2944</v>
+        <v>1925</v>
       </c>
       <c r="E681" s="3">
         <v>418974.33970000001</v>
@@ -33774,10 +33774,10 @@
         <v>820</v>
       </c>
       <c r="C826" s="1" t="s">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="D826" s="16" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="E826" s="3">
         <v>367336.15490000002</v>
@@ -37459,15 +37459,18 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010005A3960399C2234EB92CC9686FF6F87F" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6b9fb4baab9ad9fbdda99e3f5c22fc21">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3aff557-982a-455c-8bbc-92c71da94542" xmlns:ns3="857edd72-1fa1-43ec-b599-5660574b73e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="431e8fb1ae557487b3a709321472510d" ns2:_="" ns3:_="">
-    <xsd:import namespace="f3aff557-982a-455c-8bbc-92c71da94542"/>
-    <xsd:import namespace="857edd72-1fa1-43ec-b599-5660574b73e4"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a50253f552cd15765e58fb5d1e43959a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d8405c2c6377cc88ff03d0ac4a3d3549" ns2:_="">
+    <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -37476,8 +37479,11 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -37485,7 +37491,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f3aff557-982a-455c-8bbc-92c71da94542" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ae060729-66f1-4cea-a45e-be2331389c13" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -37498,34 +37504,33 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="857edd72-1fa1-43ec-b599-5660574b73e4" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d19f90c4-00d9-45b7-bc62-04f95cbe7a8b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -37649,19 +37654,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0AB627A-89AE-4954-AE30-B695868C616F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBEE428-479F-41D1-B644-78C762F6A65B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f3aff557-982a-455c-8bbc-92c71da94542"/>
-    <ds:schemaRef ds:uri="857edd72-1fa1-43ec-b599-5660574b73e4"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
